--- a/data/transformed_data_2005.xlsx
+++ b/data/transformed_data_2005.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17538" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17535" uniqueCount="45">
   <si>
     <t>source</t>
   </si>
@@ -126,7 +126,7 @@
     <t>Imports of end-use goods</t>
   </si>
   <si>
-    <t>Imports of waste</t>
+    <t>Imports of loss</t>
   </si>
   <si>
     <t>Imports of generated scrap</t>
@@ -138,7 +138,7 @@
     <t>Reference flow start</t>
   </si>
   <si>
-    <t>Waste</t>
+    <t>Loss</t>
   </si>
   <si>
     <t>Exports of iron ore</t>
@@ -1210,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>8357.517374484843</v>
+        <v>8522.053084158091</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1448,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>28423.37986981424</v>
+        <v>29754.62333898875</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>1782.913897596656</v>
+        <v>1840.157366771164</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1644,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>39680.2</v>
+        <v>40954.2</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1826,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>221157.398827074</v>
+        <v>221983.319443661</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1896,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>22850.478827074</v>
+        <v>23676.39944366104</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1994,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>119982.561172926</v>
+        <v>120430.6405563389</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2064,7 +2064,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>12396.86751716498</v>
+        <v>12844.9469005779</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2400,7 +2400,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>12166.19602108939</v>
+        <v>12387.97519993718</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2582,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>1.3</v>
+        <v>1.239120655333202</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2750,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>170282.751117665</v>
+        <v>170282.6902383203</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4177,7 +4177,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>4439.734179473651</v>
+        <v>5143.076826682819</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4191,7 +4191,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2645.581891689179</v>
+        <v>1942.239244480012</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5179,13 +5179,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>703.3426472091678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5193,13 +5193,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>703.3426472091674</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5325,7 +5325,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>923.65</v>
+        <v>673.1052631578947</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5493,7 +5493,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>561.9301901373668</v>
+        <v>311.3854532952615</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5708,10 +5708,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -5722,10 +5722,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
@@ -6682,7 +6682,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1521.143443418321</v>
+        <v>1538.229844038235</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6920,7 +6920,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>14935.68465821364</v>
+        <v>15073.92917232022</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7018,7 +7018,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>771.7300313479645</v>
+        <v>777.6745454545453</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7116,7 +7116,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>17175.48</v>
+        <v>17307.78</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7298,7 +7298,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>16887.44389536776</v>
+        <v>16956.89932206392</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7368,7 +7368,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1906.183895367763</v>
+        <v>1975.639322063917</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7466,7 +7466,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>15280.07610463224</v>
+        <v>15342.92067793608</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7536,7 +7536,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1724.750955272348</v>
+        <v>1787.595528576188</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7872,7 +7872,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>6946.829986797875</v>
+        <v>6969.860901524375</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -9425,7 +9425,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1494.065496249863</v>
+        <v>1557.348461508805</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -9663,7 +9663,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2851.089598558932</v>
+        <v>3363.106317472202</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -9761,7 +9761,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>145.310344827587</v>
+        <v>167.3270637408568</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -9859,7 +9859,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>3234</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -10615,7 +10615,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>10307.54875564424</v>
+        <v>10882.84843981645</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -10713,7 +10713,7 @@
         <v>15</v>
       </c>
       <c r="D140">
-        <v>6128.961894137909</v>
+        <v>5638.961894137909</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -10797,7 +10797,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>12725.05</v>
+        <v>10763.55848655964</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -10965,7 +10965,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>4298.462498742074</v>
+        <v>2336.970985301712</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -13526,7 +13526,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>1032.85</v>
+        <v>953.3728073928297</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -13694,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>3484.687174197445</v>
+        <v>3405.209981590274</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -14198,7 +14198,7 @@
         <v>4</v>
       </c>
       <c r="D194">
-        <v>7012</v>
+        <v>7012.000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -16269,7 +16269,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>780</v>
+        <v>600</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -16437,7 +16437,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>602.7347721986098</v>
+        <v>422.7347721986097</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -17626,7 +17626,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1228.803716847764</v>
+        <v>1229.0568487088</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -17864,7 +17864,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>5255.764536720786</v>
+        <v>5257.81260359644</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -17962,7 +17962,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>321.3560292580978</v>
+        <v>321.4440961337514</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -18060,7 +18060,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>7152.04</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -18242,7 +18242,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>5258.470101088048</v>
+        <v>5259.082120420111</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -18312,7 +18312,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>288.8901010880481</v>
+        <v>289.5021204201112</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -18410,7 +18410,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>11581.84989891195</v>
+        <v>11583.19787957989</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -18480,7 +18480,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>636.2842659105299</v>
+        <v>637.6322465784651</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -18816,7 +18816,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>8510.235324815447</v>
+        <v>8510.576523552138</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>17746.95</v>
+        <v>17370.87896139796</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>6829.618712891213</v>
+        <v>6453.547674289177</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -27227,7 +27227,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>458.9</v>
+        <v>403.3909884172282</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -27395,7 +27395,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>1614.455922310556</v>
+        <v>1558.946910727785</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -31327,7 +31327,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1059.469673763868</v>
+        <v>1062.164673763868</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -31551,7 +31551,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>10029.03716397396</v>
+        <v>10450.49102468579</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -31565,7 +31565,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>8994.833113506025</v>
+        <v>8598.980088739852</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -31663,7 +31663,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>1090.047753396029</v>
+        <v>1091.148589341694</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -31761,7 +31761,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>24259.9</v>
+        <v>24284.4</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -31943,7 +31943,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>18368.5403510128</v>
+        <v>18378.47638123491</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -32013,7 +32013,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2251.460351012798</v>
+        <v>2261.396381234908</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -32111,7 +32111,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>26924.11964898719</v>
+        <v>26938.68361876508</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -32181,7 +32181,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>3300.130914990033</v>
+        <v>3314.694884767923</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -32553,13 +32553,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>421.4538607118357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -32567,13 +32567,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>417.6580247661732</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -32699,7 +32699,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>58230.25</v>
+        <v>57464.0625</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -32867,7 +32867,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>1139.210953090813</v>
+        <v>373.0234530908128</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -33082,10 +33082,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -33096,10 +33096,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
@@ -34280,7 +34280,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>1718.171702151793</v>
+        <v>2390.480276848786</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -34294,7 +34294,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2889.120243477984</v>
+        <v>2216.811668780992</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -35282,13 +35282,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>672.3085746969928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -35296,13 +35296,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>672.3085746969928</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -35811,10 +35811,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -35825,10 +35825,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
@@ -37009,7 +37009,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>2730.172102185387</v>
+        <v>2787.05201067928</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -37023,7 +37023,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1462.876868556514</v>
+        <v>1405.996960062621</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -37121,7 +37121,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>184.3239707419007</v>
+        <v>184.3239707419016</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -38011,13 +38011,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>56.87990849389325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -38025,13 +38025,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>56.8799084938928</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -38540,10 +38540,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -38554,10 +38554,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
@@ -39514,7 +39514,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>258.6308191703242</v>
+        <v>260.5293081280925</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -39752,7 +39752,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>585.8053116860835</v>
+        <v>601.1658132534816</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -39850,7 +39850,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>26.72829676071058</v>
+        <v>27.38879832810869</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -39948,7 +39948,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>594.86</v>
+        <v>609.5599999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -40130,7 +40130,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>1761.264094175058</v>
+        <v>1765.239261405366</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -40200,7 +40200,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>161.9040941750584</v>
+        <v>165.8792614053662</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -40298,7 +40298,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>4751.815905824942</v>
+        <v>4762.540738594634</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -40368,7 +40368,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>436.8103866215279</v>
+        <v>447.5352193912195</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -40704,7 +40704,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1365.208811699702</v>
+        <v>1367.767802224869</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -45000,7 +45000,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1216.473385397692</v>
+        <v>1217.73904470287</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -45238,7 +45238,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2274.253483210906</v>
+        <v>2284.493817589172</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -45336,7 +45336,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>117.8775130616509</v>
+        <v>118.3178474399165</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -45434,7 +45434,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>2623.46</v>
+        <v>2633.26</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -45616,7 +45616,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>4967.075727095448</v>
+        <v>4971.320002688968</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -45686,7 +45686,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>647.2357270954481</v>
+        <v>651.4800026889679</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -45784,7 +45784,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>6501.86427290455</v>
+        <v>6507.419997311033</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -45854,7 +45854,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>847.226634213227</v>
+        <v>852.7823586197092</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -46190,7 +46190,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>8399.122127435379</v>
+        <v>8400.828121118819</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -51690,7 +51690,7 @@
         <v>15</v>
       </c>
       <c r="D134">
-        <v>1905.051308241906</v>
+        <v>8557.608178470924</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -51858,7 +51858,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>155195.95</v>
+        <v>148543.393129771</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -52526,7 +52526,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -54399,13 +54399,13 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C134" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>189.9756124626292</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -54573,7 +54573,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>17818.45</v>
+        <v>17331.53993548947</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -54741,7 +54741,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>296.9344520479026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -54900,10 +54900,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C170" t="s">
         <v>15</v>
@@ -54914,10 +54914,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C171" t="s">
         <v>15</v>
@@ -54928,10 +54928,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B172" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
@@ -54942,10 +54942,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C173" t="s">
         <v>15</v>
@@ -54956,10 +54956,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -54970,10 +54970,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
@@ -54984,10 +54984,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>15</v>
@@ -54998,10 +54998,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C177" t="s">
         <v>15</v>
@@ -55012,10 +55012,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>15</v>
@@ -55026,10 +55026,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C179" t="s">
         <v>15</v>
@@ -55040,10 +55040,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
         <v>15</v>
@@ -55054,10 +55054,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
@@ -55068,10 +55068,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
         <v>15</v>
@@ -55082,10 +55082,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C183" t="s">
         <v>15</v>
@@ -55096,10 +55096,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B184" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
         <v>15</v>
@@ -55110,10 +55110,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C185" t="s">
         <v>15</v>
@@ -55124,10 +55124,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
         <v>15</v>
@@ -55138,10 +55138,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C187" t="s">
         <v>15</v>
@@ -55152,10 +55152,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B188" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
         <v>15</v>
@@ -55166,10 +55166,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C189" t="s">
         <v>15</v>
@@ -55180,7 +55180,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B190" t="s">
         <v>31</v>
@@ -55194,10 +55194,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B191" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>15</v>
@@ -55208,7 +55208,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -55222,43 +55222,29 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D194">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>30</v>
-      </c>
-      <c r="B195" t="s">
-        <v>42</v>
-      </c>
-      <c r="C195" t="s">
-        <v>44</v>
-      </c>
-      <c r="D195">
         <v>30000</v>
       </c>
     </row>
@@ -57316,7 +57302,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>259.35</v>
+        <v>227.3145149825453</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -57484,7 +57470,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>968.224207507296</v>
+        <v>936.1887224898413</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -57988,7 +57974,7 @@
         <v>4</v>
       </c>
       <c r="D194">
-        <v>540.9999999999999</v>
+        <v>541.0000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -61416,7 +61402,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>5481.482527858578</v>
+        <v>5523.882114582069</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -61654,7 +61640,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>27492.21263720583</v>
+        <v>27835.26383887772</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -61752,7 +61738,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>1255.349278996866</v>
+        <v>1270.100480668756</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -61850,7 +61836,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>27938.82</v>
+        <v>28267.12</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -62032,7 +62018,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>38397.03177322855</v>
+        <v>38515.7544244264</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -62102,7 +62088,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>3322.83177322855</v>
+        <v>3441.554424426402</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -62200,7 +62186,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>67781.06822677146</v>
+        <v>67990.6455755736</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -62270,7 +62256,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>5865.690047539596</v>
+        <v>6075.267396341733</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -62606,7 +62592,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>32358.28217830828</v>
+        <v>32415.43296670369</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -64159,7 +64145,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>358.9246368795311</v>
+        <v>362.7216147950676</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -64397,7 +64383,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1490.20630897238</v>
+        <v>1520.927312107176</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -64495,7 +64481,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>76.53011494252883</v>
+        <v>77.85111807732483</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -64593,7 +64579,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>1703.24</v>
+        <v>1732.64</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -64775,7 +64761,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>919.1739164663536</v>
+        <v>923.9913898230955</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -64845,7 +64831,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>142.0339164663536</v>
+        <v>146.8513898230955</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -64943,7 +64929,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>4690.346083533646</v>
+        <v>4714.928610176904</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -65013,7 +64999,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>724.7684163928216</v>
+        <v>749.3509430360791</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -65349,7 +65335,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1908.450838100483</v>
+        <v>1913.568819150816</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -65363,7 +65349,7 @@
         <v>15</v>
       </c>
       <c r="D134">
-        <v>209.2077236590503</v>
+        <v>92.14613567621927</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -65531,7 +65517,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>11438.05</v>
+        <v>11555.11158798283</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -66888,7 +66874,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>7881.318634722556</v>
+        <v>7881.445200653063</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -67126,7 +67112,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>46754.4310974906</v>
+        <v>46755.45513092844</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -67224,7 +67210,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>2298.193187042845</v>
+        <v>2298.237220480674</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -67322,7 +67308,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>51148.16</v>
+        <v>51149.14</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -67504,7 +67490,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>29491.98739030179</v>
+        <v>29492.27996083432</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -67574,7 +67560,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1957.907390301796</v>
+        <v>1958.199960834325</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -67672,7 +67658,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>69294.9526096982</v>
+        <v>69295.64003916568</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -67742,7 +67728,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>4600.337645260079</v>
+        <v>4601.025074727557</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -68078,7 +68064,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>53397.05209416724</v>
+        <v>53397.22269353558</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -68260,7 +68246,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>7657.650000000001</v>
+        <v>7416.491473615628</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -68428,7 +68414,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>9057.248319714199</v>
+        <v>8816.089793329826</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -69617,7 +69603,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>4433.144293035017</v>
+        <v>4686.276154070794</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -69855,7 +69841,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>7104.703581231775</v>
+        <v>9152.770456884859</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -69953,7 +69939,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>387.4942528735628</v>
+        <v>475.5611285266459</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -70051,7 +70037,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>8624</v>
+        <v>10584</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -70807,7 +70793,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>32845.89546527782</v>
+        <v>35147.09420196669</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -70905,7 +70891,7 @@
         <v>15</v>
       </c>
       <c r="D140">
-        <v>8695.489888448006</v>
+        <v>6735.489888448006</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -70989,7 +70975,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>11382.8</v>
+        <v>10152.73385666629</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -71157,7 +71143,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>4412.567535473483</v>
+        <v>3182.501392139777</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -72346,7 +72332,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1837.481449214602</v>
+        <v>1871.654250454429</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -72584,7 +72570,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>15755.82013794663</v>
+        <v>16032.3091661598</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -72682,7 +72668,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>916.8642424242425</v>
+        <v>928.7532706374077</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -72780,7 +72766,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>20405.56</v>
+        <v>20670.16</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -72962,7 +72948,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>19853.94792695909</v>
+        <v>19956.57195185195</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -73032,7 +73018,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1412.307926959089</v>
+        <v>1514.931951851955</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -73130,7 +73116,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>31336.35207304092</v>
+        <v>31498.32804814805</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -73200,7 +73186,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>2229.107208176054</v>
+        <v>2391.083183283183</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -73536,7 +73522,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>8091.345394825606</v>
+        <v>8137.407224278599</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -75089,7 +75075,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>2472.318745009936</v>
+        <v>2474.217233967705</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -75327,7 +75313,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>11925.83486634227</v>
+        <v>11941.19536790967</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -75425,7 +75411,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>601.144493207943</v>
+        <v>601.8049947753425</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -75523,7 +75509,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>13378.96</v>
+        <v>13393.66</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -75705,7 +75691,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>16314.62789858663</v>
+        <v>16320.07943386128</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -75775,7 +75761,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2257.507898586635</v>
+        <v>2262.959433861282</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -75873,7 +75859,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>27677.57210141337</v>
+        <v>27686.82056613873</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -75943,7 +75929,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>3829.835287757604</v>
+        <v>3839.083752482962</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -76279,7 +76265,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>12675.53261437975</v>
+        <v>12678.09160490491</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -76461,7 +76447,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>4.55</v>
+        <v>0.7307252572451161</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -76629,7 +76615,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>27814.01778705847</v>
+        <v>27810.19851231571</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -80575,7 +80561,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>798.6344688992085</v>
+        <v>802.431446814745</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -80813,7 +80799,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1511.506645923992</v>
+        <v>1542.227649058787</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -80911,7 +80897,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>305.1076907001052</v>
+        <v>306.4286938349014</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -81009,7 +80995,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>6790.42</v>
+        <v>6819.82</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -81191,7 +81177,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>8713.463070569978</v>
+        <v>8723.892110750196</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -81261,7 +81247,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1314.463070569978</v>
+        <v>1324.892110750196</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -81359,7 +81345,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>15850.23692943002</v>
+        <v>15869.2078892498</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -81429,7 +81415,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>2391.075848348939</v>
+        <v>2410.046808168723</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -81765,7 +81751,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1803.615083358899</v>
+        <v>1808.73306440923</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -81779,7 +81765,7 @@
         <v>15</v>
       </c>
       <c r="D134">
-        <v>7949.345401026483</v>
+        <v>4797.316568006529</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -81947,7 +81933,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>146337.75</v>
+        <v>149489.77883302</v>
       </c>
     </row>
     <row r="147" spans="1:4">

--- a/data/transformed_data_2005.xlsx
+++ b/data/transformed_data_2005.xlsx
@@ -27885,7 +27885,7 @@
         <v>4</v>
       </c>
       <c r="D193">
-        <v>18.40000000000009</v>
+        <v>18.39999999999986</v>
       </c>
     </row>
     <row r="194" spans="1:4">

--- a/data/transformed_data_2005.xlsx
+++ b/data/transformed_data_2005.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>260425.6853439545</v>
+        <v>263967.3661439545</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>31389.4</v>
+        <v>26994.884</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6091.68</v>
+        <v>5238.8448</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14065.69607339971</v>
+        <v>13842.74607339971</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>81.34</v>
+        <v>69.9524</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1673.84</v>
+        <v>1439.5024</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7844,7 +7844,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22827.9332284495</v>
+        <v>23523.1256284495</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8180,7 +8180,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>12094.18</v>
+        <v>10400.9948</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8348,7 +8348,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7128.52</v>
+        <v>6130.5272</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15633.29704751067</v>
+        <v>15698.05544751067</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1797.32</v>
+        <v>1545.6952</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1334.76</v>
+        <v>1147.8936</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13316,7 +13316,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14045.91340028449</v>
+        <v>14102.71420028449</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13652,7 +13652,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7172.62</v>
+        <v>6168.4532</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13820,7 +13820,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6766.9</v>
+        <v>5819.534</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16059,7 +16059,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5304.289199999998</v>
+        <v>5247.762799999999</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16395,7 +16395,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>142.1</v>
+        <v>122.206</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16563,7 +16563,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>545.86</v>
+        <v>469.4396</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18788,7 +18788,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14634.33244438122</v>
+        <v>14526.76764438122</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19124,7 +19124,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9999.92</v>
+        <v>8599.931200000001</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19292,7 +19292,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10768.24</v>
+        <v>9260.686400000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21531,7 +21531,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19050.66488933144</v>
+        <v>18938.84688933143</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21867,7 +21867,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7546</v>
+        <v>6489.559999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22035,7 +22035,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8344.700000000001</v>
+        <v>7176.441999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17269.75262645804</v>
+        <v>16809.17222645803</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24610,7 +24610,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7798.84</v>
+        <v>6707.0024</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24778,7 +24778,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11088.7</v>
+        <v>9536.281999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27017,7 +27017,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7279.722373826458</v>
+        <v>7115.493973826458</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27353,7 +27353,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1029</v>
+        <v>884.9399999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27521,7 +27521,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2202.06</v>
+        <v>1893.7716</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29746,7 +29746,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5716.865687055476</v>
+        <v>5893.167687055477</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30082,7 +30082,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5420.38</v>
+        <v>4661.5268</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30250,7 +30250,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4161.08</v>
+        <v>3578.5288</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32489,7 +32489,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>33745.21751123756</v>
+        <v>33817.52191123756</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32825,7 +32825,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2203.04</v>
+        <v>1894.6144</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32993,7 +32993,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1686.58</v>
+        <v>1450.4588</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35218,7 +35218,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6731.384955340855</v>
+        <v>6690.087755340855</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35554,7 +35554,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>130.34</v>
+        <v>112.0924</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35722,7 +35722,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>425.32</v>
+        <v>365.7752</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37947,7 +37947,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7092.038125217399</v>
+        <v>6844.3921252174</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38283,7 +38283,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>126.42</v>
+        <v>108.7212</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38451,7 +38451,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1895.32</v>
+        <v>1629.9752</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40676,7 +40676,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3378.939546514936</v>
+        <v>3362.338346514936</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -41012,7 +41012,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3013.5</v>
+        <v>2591.61</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41180,7 +41180,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3132.08</v>
+        <v>2693.5888</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43419,7 +43419,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4516.530600284495</v>
+        <v>4431.055000284496</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43755,7 +43755,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6517.98</v>
+        <v>5605.462799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43923,7 +43923,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7128.52</v>
+        <v>6130.5272</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46162,7 +46162,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13784.67316927454</v>
+        <v>13160.27596927454</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46498,7 +46498,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6658.12</v>
+        <v>5725.9832</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46666,7 +46666,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11118.1</v>
+        <v>9561.566000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48905,7 +48905,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3417.242714082504</v>
+        <v>3425.063114082504</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49241,7 +49241,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4694.2</v>
+        <v>4037.012</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49409,7 +49409,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4638.34</v>
+        <v>3988.9724</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51648,7 +51648,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8846.411264864866</v>
+        <v>8374.580464864865</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51984,7 +51984,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>937.86</v>
+        <v>806.5595999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52152,7 +52152,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4308.08</v>
+        <v>3704.9488</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54363,7 +54363,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3614.008145661451</v>
+        <v>3565.850945661451</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54699,7 +54699,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1008.42</v>
+        <v>867.2411999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54867,7 +54867,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1352.4</v>
+        <v>1163.064</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57092,7 +57092,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5928.455214793741</v>
+        <v>5903.75921479374</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57428,7 +57428,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1284.78</v>
+        <v>1104.9108</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57596,7 +57596,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1461.18</v>
+        <v>1256.6148</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59835,7 +59835,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11514.63415192034</v>
+        <v>11585.70375192034</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60171,7 +60171,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2689.12</v>
+        <v>2312.6432</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60339,7 +60339,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2181.48</v>
+        <v>1876.0728</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62564,7 +62564,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>47894.58283413941</v>
+        <v>50866.47203413941</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62900,7 +62900,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>26488.42</v>
+        <v>22780.0412</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63068,7 +63068,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5260.64</v>
+        <v>4524.1504</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65307,7 +65307,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3692.499593741109</v>
+        <v>3667.25479374111</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65643,7 +65643,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2721.46</v>
+        <v>2340.4556</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65811,7 +65811,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2901.78</v>
+        <v>2495.5308</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68036,7 +68036,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>110712.7808694168</v>
+        <v>107917.6052694168</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68372,7 +68372,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>23269.12</v>
+        <v>20011.4432</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68540,7 +68540,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>43234.66</v>
+        <v>37181.8076</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70765,7 +70765,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>41733.67359886201</v>
+        <v>41332.63799886201</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71101,7 +71101,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2397.08</v>
+        <v>2061.4888</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71269,7 +71269,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5261.62</v>
+        <v>4524.9932</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73494,7 +73494,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>29569.72858378378</v>
+        <v>31211.46378378378</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73830,7 +73830,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>14708.82</v>
+        <v>12649.5852</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -73998,7 +73998,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2982.14</v>
+        <v>2564.6404</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76237,7 +76237,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22174.36765974396</v>
+        <v>23274.98605974395</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76573,7 +76573,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>24232.46</v>
+        <v>20839.9156</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76741,7 +76741,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>16370.9</v>
+        <v>14078.974</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78980,7 +78980,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14714.50718761114</v>
+        <v>14846.90518761114</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79316,7 +79316,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3528.98</v>
+        <v>3034.9228</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79484,7 +79484,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2583.28</v>
+        <v>2221.6208</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81723,7 +81723,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11695.26172972973</v>
+        <v>11975.28692972973</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82059,7 +82059,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3386.88</v>
+        <v>2912.7168</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82227,7 +82227,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1386.7</v>
+        <v>1192.562</v>
       </c>
     </row>
     <row r="168" spans="1:4">
